--- a/Scorecard.xlsx
+++ b/Scorecard.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/leduc_bao_2020_mitb_smu_edu_sg/Documents/SMU/Term 4/ISFS620 Data Science in Financial Services/ISFS 620 Credit Scoring Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_496D678F015CBC0F623554765843FEF88EBD9D47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED35FCE3-4B9A-4AC2-9B34-2DF8FCAFBFBC}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -136,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +142,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,26 +183,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -494,20 +481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="72.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,287 +496,287 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B36">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Scorecard.xlsx
+++ b/Scorecard.xlsx
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -557,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -581,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -597,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -605,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -629,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -645,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -653,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -661,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -677,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -693,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -709,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -717,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -725,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -741,7 +741,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -749,7 +749,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -765,7 +765,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -773,7 +773,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
